--- a/files/製造マスタサンプル２.xlsx
+++ b/files/製造マスタサンプル２.xlsx
@@ -257,7 +257,7 @@
     <t>検査</t>
   </si>
   <si>
-    <t>検索製品サンプル</t>
+    <t>A1111</t>
   </si>
   <si>
     <t>M59</t>
@@ -337,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -346,10 +346,13 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2142,7 +2145,7 @@
       <c r="A1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" ht="18.75" customHeight="1">
       <c r="A2" s="2" t="s">
